--- a/ShotClockRemote/Project Outputs for ShotClockRemote/BOM/Bill of Materials-ShotClockRemote.xlsx
+++ b/ShotClockRemote/Project Outputs for ShotClockRemote/BOM/Bill of Materials-ShotClockRemote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TASK\2023\8\Shot-Clock-Remote\ShotClockRemote\Project Outputs for ShotClockRemote\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{171DDA2A-23F4-497B-B7AF-3C64FBAA8610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39987A98-4FA2-4C12-8208-EB564776B525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{178387DF-7712-48ED-8C8C-88E9EE5EE8E8}"/>
+    <workbookView xWindow="3330" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{7CDE68E9-3F7E-402D-A63B-AB8CE2ACCD2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ShotClockRemo" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>Comment</t>
   </si>
@@ -174,10 +174,73 @@
     <t>0.35</t>
   </si>
   <si>
+    <t>TLVG4200</t>
+  </si>
+  <si>
+    <t>Green 569nm LED Indication - Discrete 2.4V Radial</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED3MM_GREEN</t>
+  </si>
+  <si>
+    <t>LED GREEN DIP 3mm</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductor Opto Division</t>
+  </si>
+  <si>
+    <t>TLVG4200-ND</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>TLHY4400</t>
+  </si>
+  <si>
+    <t>Yellow 588nm LED Indication - Discrete 2.4V Radial</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED3MM_YELLOW</t>
+  </si>
+  <si>
+    <t>LED YELLOW DIP 3mm</t>
+  </si>
+  <si>
+    <t>TLHY4400-ND</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>TLHR4400</t>
+  </si>
+  <si>
+    <t>Red 619nm LED Indication - Discrete 2V Radial</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED3MM_RED</t>
+  </si>
+  <si>
+    <t>LED RED DIP 3mm</t>
+  </si>
+  <si>
+    <t>751-1127-ND</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
-    <t>10 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+    <t xml:space="preserve"> 10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
   </si>
   <si>
     <t>R1</t>
@@ -189,13 +252,31 @@
     <t>RES</t>
   </si>
   <si>
-    <t>RC0603FR-0710RL</t>
-  </si>
-  <si>
-    <t>311-10.0HRTR-ND</t>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>311-10.0KHRTR-ND</t>
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>1 KOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>R2, R3, R4, R5</t>
+  </si>
+  <si>
+    <t>RES1</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>311-1.00KHRTR-ND</t>
   </si>
   <si>
     <t>150011E</t>
@@ -640,8 +721,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA4776E-418D-4BC6-A196-93492AB8D021}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02CD68C-9029-4E8E-9616-BE53BD81BA9C}">
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -896,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>18</v>
@@ -922,98 +1003,238 @@
         <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
